--- a/tables/7.Discriminación/cuadros_discriminación1.xlsx
+++ b/tables/7.Discriminación/cuadros_discriminación1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unhcr365-my.sharepoint.com/personal/martnez_unhcr_org/Documents/Desktop/AYELEN/ENMA/ENMA_repositorio/enma2023/tables/7.Discriminación/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="424" documentId="8_{AEA11206-6E6A-43C0-B156-3D10D1BA5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00C08290-AB20-4468-B414-16EAAA387129}"/>
+  <xr:revisionPtr revIDLastSave="544" documentId="8_{AEA11206-6E6A-43C0-B156-3D10D1BA5B04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F8AB046-EF36-4A38-8340-0A7B3D3FC857}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pedido16_q62" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="48">
   <si>
     <t>No</t>
   </si>
@@ -176,6 +176,12 @@
   </si>
   <si>
     <t>Versión 1</t>
+  </si>
+  <si>
+    <t>Sí, al menos alguna vez</t>
+  </si>
+  <si>
+    <t>Sí, al menos alguna vz</t>
   </si>
 </sst>
 </file>
@@ -255,7 +261,6 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -268,12 +273,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -283,6 +288,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -609,20 +615,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -641,18 +647,18 @@
         <v>2</v>
       </c>
       <c r="B3" s="2">
-        <v>131.91266347499999</v>
+        <v>190.953</v>
       </c>
       <c r="C3" s="2">
-        <v>2132.7963388560001</v>
+        <v>2128.9470000000001</v>
       </c>
       <c r="D3" s="8">
         <f>+B3/B$5*100</f>
-        <v>40.856824066486375</v>
+        <v>60.798593455633323</v>
       </c>
       <c r="E3" s="8">
         <f>+C3/C$5*100</f>
-        <v>50.045157084053962</v>
+        <v>51.184349749036571</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -660,18 +666,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="2">
-        <v>190.953018058</v>
+        <v>123.1216</v>
       </c>
       <c r="C4" s="2">
-        <v>2128.9473804690001</v>
+        <v>2030.423</v>
       </c>
       <c r="D4" s="8">
         <f>+B4/B$5*100</f>
-        <v>59.143175933513625</v>
+        <v>39.201374704807485</v>
       </c>
       <c r="E4" s="8">
         <f>+C4/C$5*100</f>
-        <v>49.954842915946038</v>
+        <v>48.815626208866675</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -679,10 +685,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>322.86568153299999</v>
+        <v>314.07470000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>4261.7437193250007</v>
+        <v>4159.3710000000001</v>
       </c>
       <c r="D5" s="1">
         <v>100</v>
@@ -697,20 +703,20 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="20"/>
-      <c r="D9" s="20" t="s">
+      <c r="C9" s="19"/>
+      <c r="D9" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="20"/>
-    </row>
-    <row r="10" spans="1:5" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="21"/>
+      <c r="E9" s="19"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
       <c r="B10" s="4" t="s">
         <v>0</v>
       </c>
@@ -810,11 +816,11 @@
       <c r="C15" s="6">
         <v>4261.7437</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E15" s="12">
+      <c r="E15" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -848,20 +854,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -1073,7 +1079,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1082,65 +1088,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20" t="s">
+      <c r="C1" s="19"/>
+      <c r="D1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="20"/>
+      <c r="E1" s="19"/>
     </row>
     <row r="2" spans="1:5" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>63.593067955000002</v>
+        <v>257.73138999999998</v>
       </c>
       <c r="C3" s="2">
-        <v>770.47787788699998</v>
+        <v>3495.2741999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>19.8</v>
+        <v>81.5</v>
       </c>
       <c r="E3" s="1">
-        <v>18.100000000000001</v>
+        <v>84.6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="B4" s="2">
-        <v>257.73139183500001</v>
+        <v>58.545929999999998</v>
       </c>
       <c r="C4" s="2">
-        <v>3495.2742374990003</v>
+        <v>636.40480000000002</v>
       </c>
       <c r="D4" s="1">
-        <v>80.2</v>
+        <v>18.5</v>
       </c>
       <c r="E4" s="1">
-        <v>81.900000000000006</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.35">
@@ -1148,10 +1154,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6">
-        <v>321.32445978999999</v>
+        <v>316.27733000000001</v>
       </c>
       <c r="C5" s="6">
-        <v>4265.7521153859998</v>
+        <v>4131.6790000000001</v>
       </c>
       <c r="D5" s="5">
         <v>100</v>
@@ -1171,30 +1177,30 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20" t="s">
+      <c r="C10" s="19"/>
+      <c r="D10" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="20"/>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="21"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1284,18 +1290,18 @@
       <c r="C16" s="6">
         <v>4265.7520999999997</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="11">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1312,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView showGridLines="0" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1325,256 +1331,270 @@
     <col min="3" max="5" width="14.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:11" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="10" t="s">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="2">
-        <v>676.87919999999997</v>
+        <v>429.8116</v>
       </c>
       <c r="C4" s="2">
-        <v>429.811561364</v>
-      </c>
-      <c r="D4" s="8">
-        <f>+B4/B$9*100</f>
-        <v>29.884291390728475</v>
+        <v>651.3768</v>
+      </c>
+      <c r="D4" s="1">
+        <v>18.5</v>
       </c>
       <c r="E4" s="1">
-        <v>18.5</v>
-      </c>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+        <v>30.2</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="12"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B5" s="2">
-        <v>307.78140000000002</v>
+        <v>114.0487</v>
       </c>
       <c r="C5" s="2">
-        <v>114.04869616000001</v>
-      </c>
-      <c r="D5" s="8">
-        <f>+B5/B$9*100</f>
-        <v>13.588582781456953</v>
+        <v>293.1558</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.9000000000000004</v>
       </c>
       <c r="E5" s="1">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+        <v>13.6</v>
+      </c>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B6" s="2">
-        <v>34</v>
+        <v>16.256679999999999</v>
       </c>
       <c r="C6" s="2">
-        <v>16.256677186000001</v>
-      </c>
-      <c r="D6" s="8">
-        <f>+B6/B$9*100</f>
-        <v>1.5011037527593818</v>
+        <v>33.986789999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.7</v>
       </c>
       <c r="E6" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+        <v>1.6</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="12"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="2">
-        <v>1289</v>
+        <v>1700.2239999999999</v>
       </c>
       <c r="C7" s="2">
-        <v>1700.2235410759999</v>
-      </c>
-      <c r="D7" s="8">
-        <f>+B7/B$9*100</f>
-        <v>56.909492273730692</v>
+        <v>1214.4760000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>73.3</v>
       </c>
       <c r="E7" s="1">
-        <v>73.3</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+        <v>56.4</v>
+      </c>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="12"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="2">
-        <v>150</v>
+        <v>247.8776</v>
       </c>
       <c r="C8" s="2">
-        <v>247.87762336</v>
-      </c>
-      <c r="D8" s="8">
-        <f>+B8/B$9*100</f>
-        <v>6.6225165562913908</v>
+        <v>146.44280000000001</v>
+      </c>
+      <c r="D8" s="1">
+        <v>10.7</v>
       </c>
       <c r="E8" s="1">
-        <v>10.7</v>
-      </c>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+        <v>6.8</v>
+      </c>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="9" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B9" s="6">
-        <v>2265</v>
+        <v>2319.9</v>
       </c>
       <c r="C9" s="6">
-        <v>2319.9003985270001</v>
+        <v>2153.5450000000001</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B13" s="2">
-        <v>676.87919999999997</v>
+        <v>429.8116</v>
       </c>
       <c r="C13" s="6">
-        <v>1106.691</v>
+        <v>1081.1884</v>
       </c>
       <c r="D13" s="8">
         <f>+B13/C13*100</f>
-        <v>61.162438295784462</v>
-      </c>
-      <c r="F13" s="13"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+        <v>39.753626657481711</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2">
-        <v>307.78140000000002</v>
+        <v>114.0487</v>
       </c>
       <c r="C14" s="6">
-        <v>421.83010000000002</v>
+        <v>407.2045</v>
       </c>
       <c r="D14" s="8">
         <f>+B14/C14*100</f>
-        <v>72.963356574127829</v>
-      </c>
-      <c r="F14" s="13"/>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+        <v>28.007720936286312</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="2">
-        <v>34</v>
+        <v>16.256679999999999</v>
       </c>
       <c r="C15" s="6">
         <v>50.243470000000002</v>
       </c>
       <c r="D15" s="8">
         <f>+B15/C15*100</f>
-        <v>67.670485338691762</v>
-      </c>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+        <v>32.355806635170694</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="2">
-        <v>1289</v>
+        <v>1700.2239999999999</v>
       </c>
       <c r="C16" s="6">
-        <v>2988.7460000000001</v>
+        <v>2914.7</v>
       </c>
       <c r="D16" s="8">
         <f>+B16/C16*100</f>
-        <v>43.128455880827609</v>
-      </c>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+        <v>58.332727210347542</v>
+      </c>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B17" s="2">
-        <v>150</v>
+        <v>247.8776</v>
       </c>
       <c r="C17" s="6">
-        <v>397.94740000000002</v>
+        <v>394.32040000000001</v>
       </c>
       <c r="D17" s="8">
         <f>+B17/C17*100</f>
-        <v>37.693423804251516</v>
-      </c>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14"/>
+        <v>62.861977214468233</v>
+      </c>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1591,7 +1611,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1601,24 +1621,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="21"/>
+      <c r="A2" s="20"/>
       <c r="B2" s="3" t="s">
         <v>33</v>
       </c>
@@ -1967,11 +1987,9 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="A12:XFD12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -1979,356 +1997,245 @@
     <col min="2" max="5" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:6" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="21"/>
-      <c r="B3" s="16" t="s">
+      <c r="E2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="20"/>
+      <c r="B3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="9">
-        <v>253</v>
-      </c>
-      <c r="C4" s="9">
-        <v>852.18707685100003</v>
-      </c>
-      <c r="D4" s="8">
-        <v>30.335731414868107</v>
-      </c>
-      <c r="E4" s="8">
-        <v>22.706789198241285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B4" s="2">
+        <v>207.0745</v>
+      </c>
+      <c r="C4" s="2">
+        <v>852.18709999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>29.8</v>
+      </c>
+      <c r="E4" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9">
-        <v>115</v>
-      </c>
-      <c r="C5" s="9">
-        <v>304.23408805600002</v>
-      </c>
-      <c r="D5" s="8">
-        <v>13.788968824940047</v>
-      </c>
-      <c r="E5" s="8">
-        <v>8.1064117164670684</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
+        <v>103.3124</v>
+      </c>
+      <c r="C5" s="2">
+        <v>304.23410000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>14.9</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8.1</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="9">
-        <v>11</v>
-      </c>
-      <c r="C6" s="9">
-        <v>38.367037328999999</v>
-      </c>
-      <c r="D6" s="8">
-        <v>1.3189448441247003</v>
-      </c>
-      <c r="E6" s="8">
-        <v>1.0223016195104544</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B6" s="2">
+        <v>11.048220000000001</v>
+      </c>
+      <c r="C6" s="2">
+        <v>38.367040000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="9">
-        <v>468</v>
-      </c>
-      <c r="C7" s="9">
-        <v>2527.0246609629999</v>
-      </c>
-      <c r="D7" s="8">
-        <v>56.115107913669057</v>
-      </c>
-      <c r="E7" s="8">
-        <v>67.333356529269054</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B7" s="2">
+        <v>390.88010000000003</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2527.0246999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>56.2</v>
+      </c>
+      <c r="E7" s="1">
+        <v>67.3</v>
+      </c>
+      <c r="F7" s="12"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="9">
-        <v>82</v>
-      </c>
-      <c r="C8" s="9">
-        <v>313.587179268</v>
-      </c>
-      <c r="D8" s="8">
-        <v>9.8321342925659465</v>
-      </c>
-      <c r="E8" s="8">
-        <v>8.3556277351933641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B8" s="2">
+        <v>66.364080000000001</v>
+      </c>
+      <c r="C8" s="2">
+        <v>313.58717999999999</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9.5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="F8" s="12"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="12">
-        <v>834</v>
-      </c>
-      <c r="C9" s="12">
-        <v>3753.0056293339999</v>
+      <c r="B9" s="6">
+        <v>694.95069999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3753.0056</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="17"/>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+    <row r="13" spans="1:6" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B13" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="21"/>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="21"/>
-      <c r="B13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="C13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="9">
-        <v>253</v>
-      </c>
-      <c r="C14" s="9">
-        <v>852.18707685100003</v>
-      </c>
-      <c r="D14" s="1">
-        <v>29.8</v>
-      </c>
-      <c r="E14" s="1">
-        <v>22.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>33</v>
+      </c>
+      <c r="B14" s="2">
+        <v>207.0745</v>
+      </c>
+      <c r="C14" s="6">
+        <v>1059.2616</v>
+      </c>
+      <c r="D14" s="8">
+        <f>+B14/C14*100</f>
+        <v>19.548948059667222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="9">
-        <v>115</v>
-      </c>
-      <c r="C15" s="9">
-        <v>304.23408805600002</v>
-      </c>
-      <c r="D15" s="1">
-        <v>14.9</v>
-      </c>
-      <c r="E15" s="1">
-        <v>8.1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" s="2">
+        <v>103.3124</v>
+      </c>
+      <c r="C15" s="6">
+        <v>407.54650000000004</v>
+      </c>
+      <c r="D15" s="8">
+        <f>+B15/C15*100</f>
+        <v>25.349843514789107</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="9">
-        <v>11</v>
-      </c>
-      <c r="C16" s="9">
-        <v>38.367037328999999</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+        <v>34</v>
+      </c>
+      <c r="B16" s="2">
+        <v>11.048220000000001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>49.415260000000004</v>
+      </c>
+      <c r="D16" s="8">
+        <f>+B16/C16*100</f>
+        <v>22.357911301083917</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="9">
-        <v>468</v>
-      </c>
-      <c r="C17" s="9">
-        <v>2527.0246609629999</v>
-      </c>
-      <c r="D17" s="1">
-        <v>56.2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>67.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="B17" s="2">
+        <v>390.88010000000003</v>
+      </c>
+      <c r="C17" s="6">
+        <v>2917.9047999999998</v>
+      </c>
+      <c r="D17" s="8">
+        <f>+B17/C17*100</f>
+        <v>13.395916823605761</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="9">
-        <v>82</v>
-      </c>
-      <c r="C18" s="9">
-        <v>313.587179268</v>
-      </c>
-      <c r="D18" s="1">
-        <v>9.5</v>
-      </c>
-      <c r="E18" s="1">
-        <v>8.4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="87" x14ac:dyDescent="0.35">
-      <c r="A22" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="9">
-        <v>253</v>
-      </c>
-      <c r="C23" s="6">
-        <v>1105.187076851</v>
-      </c>
-      <c r="D23" s="8">
-        <v>22.892051970139818</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="9">
-        <v>115</v>
-      </c>
-      <c r="C24" s="6">
-        <v>419.23408805600002</v>
-      </c>
-      <c r="D24" s="8">
-        <v>27.430975504224421</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B25" s="9">
-        <v>11</v>
-      </c>
-      <c r="C25" s="6">
-        <v>49.367037328999999</v>
-      </c>
-      <c r="D25" s="8">
-        <v>22.282074426893345</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="9">
-        <v>468</v>
-      </c>
-      <c r="C26" s="6">
-        <v>2995.0246609629999</v>
-      </c>
-      <c r="D26" s="8">
-        <v>15.625914741200242</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="9">
-        <v>82</v>
-      </c>
-      <c r="C27" s="6">
-        <v>395.587179268</v>
-      </c>
-      <c r="D27" s="8">
-        <v>20.728679870701054</v>
+      <c r="B18" s="2">
+        <v>66.364080000000001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>379.95125999999999</v>
+      </c>
+      <c r="D18" s="8">
+        <f>+B18/C18*100</f>
+        <v>17.466471883788465</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
+  <mergeCells count="3">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="A2:A3"/>
@@ -2339,11 +2246,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2574,27 +2482,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1d13d130-f367-41bf-8435-aab6481a31cc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{726D20FE-E4D4-46CC-8E15-8BC7A6264B93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8650A115-D01F-4549-AAE0-D40C27F8A457}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2619,9 +2517,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8650A115-D01F-4549-AAE0-D40C27F8A457}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{726D20FE-E4D4-46CC-8E15-8BC7A6264B93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9840afb1-5d18-42a2-bcba-2c8e802c66c7"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="1d13d130-f367-41bf-8435-aab6481a31cc"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>